--- a/Documentação/Projeto.xlsx
+++ b/Documentação/Projeto.xlsx
@@ -12,20 +12,25 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabela_Tarefas" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabela_Recursos" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Tabela_Atribuição" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$H$1</definedName>
-    <definedName name="Tabela_Atribuição">#REF!</definedName>
-    <definedName name="Tabela_Recursos">#REF!</definedName>
-    <definedName name="Tabela_Tarefas">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabela_Tarefas!$A$1:$J$1</definedName>
+    <definedName name="Tabela_Atribuição">Tabela_Atribuição!$A$1:$E$1</definedName>
+    <definedName name="Tabela_Recursos">Tabela_Recursos!$A$1:$K$1</definedName>
+    <definedName name="Tabela_Tarefas">Tabela_Tarefas!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+  <si>
+    <t>Modo da Tarefa</t>
+  </si>
   <si>
     <t>Nome</t>
   </si>
@@ -45,25 +50,40 @@
     <t>Anotações</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Agendada Manualmente</t>
+  </si>
+  <si>
     <t>APS Finalização</t>
   </si>
   <si>
-    <t>39,13 dias?</t>
-  </si>
-  <si>
-    <t>28 Setembro 2021 09:00</t>
+    <t>40,13 dias</t>
+  </si>
+  <si>
+    <t>27 Setembro 2021 09:00</t>
   </si>
   <si>
     <t>19 Novembro 2021 19:00</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Agendada Automaticamente</t>
+  </si>
+  <si>
     <t>Teórica Finalização</t>
   </si>
   <si>
-    <t>38,13 dias?</t>
-  </si>
-  <si>
-    <t>18 Novembro 2021 19:00</t>
+    <t>38,13 dias</t>
+  </si>
+  <si>
+    <t>18 Novembro 2021 10:00</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Objetivo</t>
@@ -72,28 +92,31 @@
     <t>5,13 dias</t>
   </si>
   <si>
-    <t>04 Outubro 2021 19:00</t>
+    <t>04 Outubro 2021 10:00</t>
   </si>
   <si>
     <t>1 página e no máximo 2 páginas</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Introdução</t>
   </si>
   <si>
     <t>2 páginas e no máximo 4 páginas</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Fundamentos das principais técnicas biométricas (conceitos gerais)</t>
   </si>
   <si>
     <t>11,13 dias</t>
   </si>
   <si>
-    <t>05 Outubro 2021 09:00</t>
-  </si>
-  <si>
-    <t>19 Outubro 2021 19:00</t>
+    <t>19 Outubro 2021 11:00</t>
   </si>
   <si>
     <t>3;4</t>
@@ -108,10 +131,7 @@
     <t>7,13 dias</t>
   </si>
   <si>
-    <t>09 Novembro 2021 09:00</t>
-  </si>
-  <si>
-    <t>17 Novembro 2021 19:00</t>
+    <t>06 Outubro 2021 10:00</t>
   </si>
   <si>
     <t>mínimo de 5 páginas e máximo de 15 páginas.</t>
@@ -132,12 +152,15 @@
     <t>Estruturação do arquivo</t>
   </si>
   <si>
-    <t>38,13 dias</t>
-  </si>
-  <si>
     <t>Prática Finalização</t>
   </si>
   <si>
+    <t>29,25 dias</t>
+  </si>
+  <si>
+    <t>05 Novembro 2021 11:00</t>
+  </si>
+  <si>
     <t>Banco de Dados</t>
   </si>
   <si>
@@ -150,7 +173,7 @@
     <t>15,13 dias</t>
   </si>
   <si>
-    <t>18 Outubro 2021 19:00</t>
+    <t>18 Outubro 2021 10:00</t>
   </si>
   <si>
     <t>Pesquisar sobre os temas de cada nivel para montagem das telas</t>
@@ -168,28 +191,91 @@
     <t>24,13 dias</t>
   </si>
   <si>
-    <t>08 Novembro 2021 10:00</t>
-  </si>
-  <si>
     <t>11;12</t>
   </si>
   <si>
     <t>Verificação Biométrica</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Iniciais</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Unidade do Material</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Conta de Logon do Usuário</t>
+  </si>
+  <si>
+    <t>Taxa padrão</t>
+  </si>
+  <si>
+    <t>Custo por uso</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Trabalho</t>
+  </si>
+  <si>
+    <t>R$ 0,00/h</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Gabriel R.</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Gabriel D.</t>
+  </si>
+  <si>
+    <t>Nome da tarefa</t>
+  </si>
+  <si>
+    <t>Nome do recurso</t>
+  </si>
+  <si>
     <t>% trabalho concluído</t>
   </si>
   <si>
-    <t>Reponsaveis</t>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Responsaveis</t>
   </si>
   <si>
     <t>Todos</t>
   </si>
   <si>
-    <t>Gabriel R.</t>
-  </si>
-  <si>
-    <t>Gabriel D.</t>
+    <t xml:space="preserve">Gabriel D.; Gabriel R.; Matheus </t>
   </si>
   <si>
     <t>Gabriel R.; Gabriel D.</t>
@@ -198,26 +284,17 @@
     <t>Lucas ; Felipe ; Matheus</t>
   </si>
   <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Matheus</t>
+    <t>Lucas; Felipe; Matheus</t>
   </si>
   <si>
     <t>Lucas; Felipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel D.; Gabriel R.;Matheus </t>
-  </si>
-  <si>
-    <t>Lucas; Felipe; Matheus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +310,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,13 +354,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,358 +686,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentação/Projeto.xlsx
+++ b/Documentação/Projeto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Estudos\APS\APS - Biometria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Estudos\APS\APS - Biometria\Projeto\verificacaoBiometrica\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -382,6 +382,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +690,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -945,6 +946,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -965,6 +969,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>0.5</v>
+      </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>

--- a/Documentação/Projeto.xlsx
+++ b/Documentação/Projeto.xlsx
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -382,7 +382,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +691,13 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="59.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -725,6 +729,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -745,6 +750,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -765,6 +771,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -788,6 +795,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -811,6 +819,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -837,6 +846,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -860,6 +870,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -883,6 +894,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -906,6 +918,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -926,6 +939,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -946,7 +960,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" t="s">
@@ -969,8 +983,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>0.5</v>
+      <c r="A13" s="5">
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -992,6 +1006,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -1015,6 +1030,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1038,6 +1054,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1077,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>

--- a/Documentação/Projeto.xlsx
+++ b/Documentação/Projeto.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Modo da Tarefa</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Lucas; Felipe</t>
+  </si>
+  <si>
+    <t>Lucas;Felipe</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1005,7 @@
         <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,7 +1033,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5">
+        <v>0.25</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>

--- a/Documentação/Projeto.xlsx
+++ b/Documentação/Projeto.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,9 +1033,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>0.25</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>

--- a/Documentação/Projeto.xlsx
+++ b/Documentação/Projeto.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4">
+        <v>0.12</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -753,7 +755,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>0.13</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -774,7 +778,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -798,7 +804,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -942,7 +950,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>0.12</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
